--- a/docs/source/recursos/industrial/tabla_exclusion.xlsx
+++ b/docs/source/recursos/industrial/tabla_exclusion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LANCIS\Dropbox (LANCIS)\FOMIX\fmx_estudio_tecnico\diagnostico\talleres\sphinx\docs\source\recursos\industrial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5EED5A6-7D8E-4B2D-8D55-ED5A8A4F2CDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82630330-1839-4E91-831A-D9860171EA1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A4420B89-9996-436E-AB1F-598E31659534}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>ID</t>
   </si>
@@ -57,9 +57,6 @@
   </si>
   <si>
     <t>Vegetación halófila hidrófila</t>
-  </si>
-  <si>
-    <t>ND</t>
   </si>
 </sst>
 </file>
@@ -411,10 +408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D59F0DF-05B0-426F-BA77-040D004DB2D0}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -478,14 +475,6 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>17</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/source/recursos/industrial/tabla_exclusion.xlsx
+++ b/docs/source/recursos/industrial/tabla_exclusion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LANCIS\Dropbox (LANCIS)\FOMIX\fmx_estudio_tecnico\diagnostico\talleres\sphinx\docs\source\recursos\industrial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82630330-1839-4E91-831A-D9860171EA1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B9D9C5E-7C07-4B4C-B586-E9FC7838936C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A4420B89-9996-436E-AB1F-598E31659534}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>ID</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>Vegetación halófila hidrófila</t>
+  </si>
+  <si>
+    <t>Asentamiento humano</t>
   </si>
 </sst>
 </file>
@@ -408,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D59F0DF-05B0-426F-BA77-040D004DB2D0}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -429,49 +432,57 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>16</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>7</v>
       </c>
     </row>

--- a/docs/source/recursos/industrial/tabla_exclusion.xlsx
+++ b/docs/source/recursos/industrial/tabla_exclusion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LANCIS\Dropbox (LANCIS)\FOMIX\fmx_estudio_tecnico\diagnostico\talleres\sphinx\docs\source\recursos\industrial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B9D9C5E-7C07-4B4C-B586-E9FC7838936C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3178249-DF51-4E62-8FD2-3A71A666C5B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A4420B89-9996-436E-AB1F-598E31659534}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>ID</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>Asentamiento humano</t>
+  </si>
+  <si>
+    <t>ND</t>
   </si>
 </sst>
 </file>
@@ -411,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D59F0DF-05B0-426F-BA77-040D004DB2D0}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -486,6 +489,14 @@
         <v>7</v>
       </c>
     </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
